--- a/P0104/09_FICHAS/N2-FP-MODELO.xlsx
+++ b/P0104/09_FICHAS/N2-FP-MODELO.xlsx
@@ -1,139 +1,256 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C99CB-70E2-4ADE-B403-A692EF921FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{EA9C99CB-70E2-4ADE-B403-A692EF921FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09AE0142-C98D-4182-8021-875DB62B8630}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Código de proyecto</t>
-  </si>
-  <si>
-    <t>Código de producto</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Autor 1</t>
-  </si>
-  <si>
-    <t>Autor 2</t>
-  </si>
-  <si>
-    <t>Autor 3</t>
-  </si>
-  <si>
-    <t>Descripción (objeto, supuestos, resultados)</t>
-  </si>
-  <si>
-    <t>Tipo de producto</t>
-  </si>
-  <si>
-    <t>Tipo del Modelo</t>
-  </si>
-  <si>
-    <t>área de conocimiento del modelo</t>
-  </si>
-  <si>
-    <t>Se cuenta con archivos  Nativos</t>
-  </si>
-  <si>
-    <t>Archivos del Modelo</t>
-  </si>
-  <si>
-    <t>Software (Nombre y versión)</t>
-  </si>
-  <si>
-    <t>Tipo de Licencia</t>
-  </si>
-  <si>
-    <t>Nivel de consumo de recursos computacionales</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado 1</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado2</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado3</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado4</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado5</t>
-  </si>
-  <si>
-    <t>Cantidad de Escenarios simulados</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 1</t>
-  </si>
-  <si>
-    <t>Descripción escenario 1</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 2</t>
-  </si>
-  <si>
-    <t>Descripción escenario 2</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 3</t>
-  </si>
-  <si>
-    <t>Descripción escenario 3</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 4</t>
-  </si>
-  <si>
-    <t>Descripción escenario 4</t>
-  </si>
-  <si>
-    <t>Nombre escenario 5</t>
-  </si>
-  <si>
-    <t>Descripción escenario 5</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Palabras Clave</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIPO DE MODELO</t>
+  </si>
+  <si>
+    <t>AREA DE CONOCIMIENTO DEL MODELO</t>
+  </si>
+  <si>
+    <t>SE CUENTA CON ARCHIVOS NATIVOS</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>TIPO DE LICENCIA</t>
+  </si>
+  <si>
+    <t>NIVEL DE CONSUMO DE RECURSOS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 1</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 2</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 3</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 4</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 5</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE ESCENARIOS SIMULADOS</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0104</t>
+  </si>
+  <si>
+    <t>PR0004</t>
+  </si>
+  <si>
+    <t>24.4. Manual de operación tratamiento_lodos</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/05_MODELO/24.2.2.5. HecRas_Canal Desague/Canal_desague.prj</t>
+  </si>
+  <si>
+    <t>AGUASCOL</t>
+  </si>
+  <si>
+    <t>ALCALDIA MUNICIPIAL DE NECHI (ANTIOQUIA)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>El modelo hidráulico ha sido desarrollado para un canal rectangular, considerando los vertederos proyectados. Se compone de 15 secciones a lo largo de una longitud total de 52,74 m. La modelación se ha realizado para tres escenarios hidráulicos, con caudales de 0,04 m³/s, 0,09 m³/s y 0,13 m³/s. El modelo incluye un vertedero y un box culvert, lo que permite analizar el comportamiento del flujo bajo diferentes condiciones hidráulicas. El análisis de la modelación muestra que el canal opera en condiciones subcríticas, ya que el número de Froude es inferior a 1 en todos los casos. La velocidad del agua es relativamente baja, lo que sugiere un flujo estable y controlado. La elevación de la lámina de agua se mantiene dentro de los rangos esperados, asegurando el correcto funcionamiento del canal y de las estructuras complementarias.</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Numérico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidrodinámico e hidráulico </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEC-RAS 5.0.3
+</t>
+  </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t>15 segundos</t>
+  </si>
+  <si>
+    <t>PF1</t>
+  </si>
+  <si>
+    <t>CAUDAL DE 0.04M3/S</t>
+  </si>
+  <si>
+    <t>PF2</t>
+  </si>
+  <si>
+    <t>CAUDAL DE 0.09M3/S</t>
+  </si>
+  <si>
+    <t>PF3</t>
+  </si>
+  <si>
+    <t>CAUDAL DE 1.13M3/S</t>
+  </si>
+  <si>
+    <t>Se trata de una modelación aplicada a una estructura puntual de menos de 60 metros, enfocada específicamente en la PTAR del municipio de Nechí.</t>
+  </si>
+  <si>
+    <t>Modelo hidráulico, canal rectangular, vertedero, box culvert, simulación HEC-RAS, secciones, longitud total, caudales, elevación mínima del canal, elevación de la lámina de agua, elevación de la lámina de agua crítica, pendiente de la línea de energía, velocidad del agua, área mojada, ancho de la lámina de agua, número de Froude, flujo subcrítico, flujo estable, estructuras complementarias.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,21 +258,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -173,13 +317,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,15 +623,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,44 +737,184 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
+    <row r="2" spans="1:46" ht="19.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -643,8 +949,20 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -679,6 +997,18 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
